--- a/iolist-테이블명세-양식.xlsx
+++ b/iolist-테이블명세-양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505003\Documents\workspace\java\Java_900_Iolist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703553B6-76B6-4B6B-B00C-582E94B7BCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249FB0F7-A612-4960-8B26-5A2716CA659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상품정보" sheetId="2" r:id="rId1"/>
@@ -2474,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E64604-DBCF-4055-812B-EB80CE0FCFFE}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3378,7 +3378,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>9</v>
       </c>
@@ -3399,8 +3399,8 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -3643,12 +3643,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3661,7 +3661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3A57C2-C82F-477F-9A3F-683D98117C9A}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -4882,12 +4882,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
